--- a/data copy/Motivation im Onlineunterricht 4BBIF_(1-4) Spanring.xlsx
+++ b/data copy/Motivation im Onlineunterricht 4BBIF_(1-4) Spanring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Dropbox\Python\dataanalysisebert\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89F0B54D-F83F-4971-95C3-1C0D977C2384}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3FF6F9-C3AD-42F0-BEFB-D3D629F7D0D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Kreuze an, welche Vorteile der Unterricht im Klassenzimmer gegenüber dem Onlineunterricht hat.</t>
   </si>
   <si>
-    <t>Wenn du bei Frage 14 "Sonstige" angekreuzt hast, gib an, was du dabei gemeint hast.</t>
-  </si>
-  <si>
     <t>Hast du den Eindruck, dass  ältere Lehrkräfte (&gt;35 Jahre) im Allgemeinen schlechter mit der Gestaltung des  Onlineunterrichts zurecht kommen tun als jüngere Lehrkräfte? (5 Sterne= trifft voll zu)</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>4BBIF</t>
+  </si>
+  <si>
+    <t>Wenn du bei Frage 4 "Sonstige" angekreuzt hast, gib an, was du dabei gemeint hast.</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -237,7 +237,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -342,10 +342,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -396,7 +396,7 @@
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="wenn andere im Onlineunterricht gelobt werden" dataDxfId="8"/>
     <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Ergänze hier Faktoren, die deine Freude am Onlineunterricht erhöhen, die bei Frage 12 nicht genannt sind." dataDxfId="7"/>
     <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Kreuze an, welche Vorteile der Unterricht im Klassenzimmer gegenüber dem Onlineunterricht hat." dataDxfId="6"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Wenn du bei Frage 14 &quot;Sonstige&quot; angekreuzt hast, gib an, was du dabei gemeint hast." dataDxfId="5"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Wenn du bei Frage 4 &quot;Sonstige&quot; angekreuzt hast, gib an, was du dabei gemeint hast." dataDxfId="5"/>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Hast du den Eindruck, dass  ältere Lehrkräfte (&gt;35 Jahre) im Allgemeinen schlechter mit der Gestaltung des  Onlineunterrichts zurecht kommen tun als jüngere Lehrkräfte? (5 Sterne= trifft voll zu)" dataDxfId="4"/>
     <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Ich fände es gut, wenn auch in Zukunft ein Teil des Unterrichts online stattfindet (5 Sterne = trifft voll zu)" dataDxfId="3"/>
     <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Kommentare" dataDxfId="2"/>
@@ -707,7 +707,7 @@
   <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2:AI5"/>
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,22 +804,22 @@
         <v>28</v>
       </c>
       <c r="AD1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="AH1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" t="s">
         <v>53</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -833,20 +833,20 @@
         <v>44264.9309953704</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -864,49 +864,49 @@
         <v>1</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="AD2" s="3"/>
       <c r="AE2">
@@ -917,10 +917,10 @@
       </c>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -934,20 +934,20 @@
         <v>44264.965115740699</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -965,49 +965,49 @@
         <v>4</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3">
@@ -1018,10 +1018,10 @@
       </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI3" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -1035,20 +1035,20 @@
         <v>44265.278530092597</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -1066,49 +1066,49 @@
         <v>2</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="T4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4">
@@ -1118,13 +1118,13 @@
         <v>5</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI4" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -1138,20 +1138,20 @@
         <v>44265.475115740701</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -1169,45 +1169,45 @@
         <v>1</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="S5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="3" t="s">
+      <c r="X5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5">
@@ -1218,10 +1218,10 @@
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI5" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
